--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPP-XCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD6848-5413-402F-BFA8-6F248C0C1FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E1D8C7-6838-4EB1-A9DF-F406B0E7DFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4ABCC862-C240-41F5-900E-EA4F4584D1C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Retweets</t>
   </si>
@@ -70,16 +70,88 @@
   </si>
   <si>
     <t>NY Taxi Dataset</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Avg Time</t>
+  </si>
+  <si>
+    <t>Std Time</t>
+  </si>
+  <si>
+    <t>Min Len</t>
+  </si>
+  <si>
+    <t>Max Len</t>
+  </si>
+  <si>
+    <t>Avg Len</t>
+  </si>
+  <si>
+    <t>Data Name</t>
+  </si>
+  <si>
+    <t>Std Len</t>
+  </si>
+  <si>
+    <t>LastFM</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>Twitter (Movie)</t>
+  </si>
+  <si>
+    <t>Twitter (Politics)</t>
+  </si>
+  <si>
+    <t>Twitter (Fight)</t>
+  </si>
+  <si>
+    <t>Twitter (Bolly)</t>
+  </si>
+  <si>
+    <t>Neural Hawkes DS</t>
+  </si>
+  <si>
+    <t>RMTPP-DS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,8 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8234F7F1-9AE8-47BD-8754-02206D1D3E9C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +511,7 @@
     <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -451,93 +528,432 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3200</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>670000</v>
+      </c>
+      <c r="C4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>650</v>
+      </c>
+      <c r="C13" s="4">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.429</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.722</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.2970000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>929</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3150</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1584</v>
+      </c>
+      <c r="E14" s="4">
+        <v>683.7</v>
+      </c>
+      <c r="F14" s="4">
+        <v>444.3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>32149</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1365</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4136</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1754</v>
+      </c>
+      <c r="D15" s="4">
+        <v>185</v>
+      </c>
+      <c r="E15" s="4">
+        <v>166.3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21.94</v>
+      </c>
+      <c r="G15" s="4">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4">
+        <v>164</v>
+      </c>
+      <c r="I15" s="4">
+        <v>42.21</v>
+      </c>
+      <c r="J15" s="4">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2994</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28746463</v>
+      </c>
+      <c r="E16" s="5">
+        <v>18730000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3456000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6517</v>
+      </c>
+      <c r="I16" s="4">
+        <v>309.3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>537.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6633</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>63157961</v>
+      </c>
+      <c r="E17" s="5">
+        <v>59020000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4296000</v>
+      </c>
+      <c r="G17" s="4">
+        <v>41</v>
+      </c>
+      <c r="H17" s="4">
+        <v>736</v>
+      </c>
+      <c r="I17" s="4">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="J17" s="4">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>954215</v>
+      </c>
+      <c r="E18" s="5">
+        <v>657000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>264100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>867</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45.79</v>
+      </c>
+      <c r="J18" s="4">
+        <v>60.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>942</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>653430</v>
+      </c>
+      <c r="E19" s="5">
+        <v>276100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>196300</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>402</v>
+      </c>
+      <c r="I19" s="4">
+        <v>22.85</v>
+      </c>
+      <c r="J19" s="4">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
+        <v>567</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>639687</v>
+      </c>
+      <c r="E20" s="5">
+        <v>489600</v>
+      </c>
+      <c r="F20" s="5">
+        <v>133100</v>
+      </c>
+      <c r="G20" s="4">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4">
+        <v>236</v>
+      </c>
+      <c r="I20" s="4">
+        <v>24.72</v>
+      </c>
+      <c r="J20" s="4">
+        <v>20.059999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>548</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>490364</v>
+      </c>
+      <c r="E21" s="5">
+        <v>416700</v>
+      </c>
+      <c r="F21" s="5">
+        <v>41370</v>
+      </c>
+      <c r="G21" s="4">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4">
+        <v>102</v>
+      </c>
+      <c r="I21" s="4">
+        <v>36.54</v>
+      </c>
+      <c r="J21" s="4">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>166076</v>
-      </c>
-      <c r="C2">
+      <c r="B22" s="2">
+        <v>29000</v>
+      </c>
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D22" s="3">
+        <v>607497</v>
+      </c>
+      <c r="E22" s="3">
+        <v>279900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>195300</v>
+      </c>
+      <c r="G22" s="2">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I22" s="2">
+        <v>108.8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>54.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>42000</v>
-      </c>
-      <c r="C3">
-        <v>5000</v>
-      </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>40000</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>3200</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6633</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>670000</v>
-      </c>
-      <c r="C8">
-        <v>299</v>
+      <c r="B23" s="2">
+        <v>230000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4947</v>
+      </c>
+      <c r="D23" s="3">
+        <v>468817</v>
+      </c>
+      <c r="E23" s="2">
+        <v>115.1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1321</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.923</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3.7639999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPP-XCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E1D8C7-6838-4EB1-A9DF-F406B0E7DFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD6B99-3463-4071-93F8-0F4B2A0BCF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4ABCC862-C240-41F5-900E-EA4F4584D1C0}"/>
   </bookViews>
@@ -127,17 +127,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,13 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,458 +490,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8234F7F1-9AE8-47BD-8754-02206D1D3E9C}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
+      <c r="A1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3200</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>650</v>
+      </c>
+      <c r="C5" s="3">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.429</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.722</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.2970000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>929</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3150</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1584</v>
+      </c>
+      <c r="E6" s="3">
+        <v>683.7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>444.3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>32149</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1365</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4136</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1754</v>
+      </c>
+      <c r="D7" s="3">
+        <v>185</v>
+      </c>
+      <c r="E7" s="3">
+        <v>166.3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>21.94</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3">
+        <v>164</v>
+      </c>
+      <c r="I7" s="3">
+        <v>42.21</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2994</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>28746463</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18730000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3456000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6517</v>
+      </c>
+      <c r="I8" s="3">
+        <v>309.3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>537.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6633</v>
+      </c>
+      <c r="C9" s="3">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>63157961</v>
+      </c>
+      <c r="E9" s="4">
+        <v>59020000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4296000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3">
+        <v>736</v>
+      </c>
+      <c r="I9" s="3">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="J9" s="3">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>954215</v>
+      </c>
+      <c r="E10" s="4">
+        <v>657000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>264100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>867</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45.79</v>
+      </c>
+      <c r="J10" s="3">
+        <v>60.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>942</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>653430</v>
+      </c>
+      <c r="E11" s="4">
+        <v>276100</v>
+      </c>
+      <c r="F11" s="4">
+        <v>196300</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>402</v>
+      </c>
+      <c r="I11" s="3">
+        <v>22.85</v>
+      </c>
+      <c r="J11" s="3">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>567</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>639687</v>
+      </c>
+      <c r="E12" s="4">
+        <v>489600</v>
+      </c>
+      <c r="F12" s="4">
+        <v>133100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3">
+        <v>236</v>
+      </c>
+      <c r="I12" s="3">
+        <v>24.72</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20.059999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>548</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>490364</v>
+      </c>
+      <c r="E13" s="4">
+        <v>416700</v>
+      </c>
+      <c r="F13" s="4">
+        <v>41370</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3">
+        <v>102</v>
+      </c>
+      <c r="I13" s="3">
+        <v>36.54</v>
+      </c>
+      <c r="J13" s="3">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>607497</v>
+      </c>
+      <c r="E14" s="2">
+        <v>279900</v>
+      </c>
+      <c r="F14" s="2">
+        <v>195300</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>264</v>
+      </c>
+      <c r="I14" s="1">
+        <v>108.8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>54.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>230000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4947</v>
+      </c>
+      <c r="D15" s="2">
+        <v>468817</v>
+      </c>
+      <c r="E15" s="1">
+        <v>115.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1321</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.923</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.7639999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3200</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B32">
         <v>670000</v>
       </c>
-      <c r="C4">
+      <c r="C32">
         <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>650</v>
-      </c>
-      <c r="C13" s="4">
-        <v>75</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1.7350000000000001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.429</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>33</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3.722</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2.2970000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>929</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3150</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1584</v>
-      </c>
-      <c r="E14" s="4">
-        <v>683.7</v>
-      </c>
-      <c r="F14" s="4">
-        <v>444.3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>3</v>
-      </c>
-      <c r="H14" s="4">
-        <v>32149</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1365</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4136</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1754</v>
-      </c>
-      <c r="D15" s="4">
-        <v>185</v>
-      </c>
-      <c r="E15" s="4">
-        <v>166.3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>21.94</v>
-      </c>
-      <c r="G15" s="4">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4">
-        <v>164</v>
-      </c>
-      <c r="I15" s="4">
-        <v>42.21</v>
-      </c>
-      <c r="J15" s="4">
-        <v>18.559999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2994</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>28746463</v>
-      </c>
-      <c r="E16" s="5">
-        <v>18730000</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3456000</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6517</v>
-      </c>
-      <c r="I16" s="4">
-        <v>309.3</v>
-      </c>
-      <c r="J16" s="4">
-        <v>537.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4">
-        <v>6633</v>
-      </c>
-      <c r="C17" s="4">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5">
-        <v>63157961</v>
-      </c>
-      <c r="E17" s="5">
-        <v>59020000</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4296000</v>
-      </c>
-      <c r="G17" s="4">
-        <v>41</v>
-      </c>
-      <c r="H17" s="4">
-        <v>736</v>
-      </c>
-      <c r="I17" s="4">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="J17" s="4">
-        <v>43.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1023</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>954215</v>
-      </c>
-      <c r="E18" s="5">
-        <v>657000</v>
-      </c>
-      <c r="F18" s="5">
-        <v>264100</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>867</v>
-      </c>
-      <c r="I18" s="4">
-        <v>45.79</v>
-      </c>
-      <c r="J18" s="4">
-        <v>60.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4">
-        <v>942</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>653430</v>
-      </c>
-      <c r="E19" s="5">
-        <v>276100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>196300</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>402</v>
-      </c>
-      <c r="I19" s="4">
-        <v>22.85</v>
-      </c>
-      <c r="J19" s="4">
-        <v>29.16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4">
-        <v>567</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>639687</v>
-      </c>
-      <c r="E20" s="5">
-        <v>489600</v>
-      </c>
-      <c r="F20" s="5">
-        <v>133100</v>
-      </c>
-      <c r="G20" s="4">
-        <v>13</v>
-      </c>
-      <c r="H20" s="4">
-        <v>236</v>
-      </c>
-      <c r="I20" s="4">
-        <v>24.72</v>
-      </c>
-      <c r="J20" s="4">
-        <v>20.059999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4">
-        <v>548</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>490364</v>
-      </c>
-      <c r="E21" s="5">
-        <v>416700</v>
-      </c>
-      <c r="F21" s="5">
-        <v>41370</v>
-      </c>
-      <c r="G21" s="4">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4">
-        <v>102</v>
-      </c>
-      <c r="I21" s="4">
-        <v>36.54</v>
-      </c>
-      <c r="J21" s="4">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>29000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>607497</v>
-      </c>
-      <c r="E22" s="3">
-        <v>279900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>195300</v>
-      </c>
-      <c r="G22" s="2">
-        <v>50</v>
-      </c>
-      <c r="H22" s="2">
-        <v>264</v>
-      </c>
-      <c r="I22" s="2">
-        <v>108.8</v>
-      </c>
-      <c r="J22" s="2">
-        <v>54.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <v>230000</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4947</v>
-      </c>
-      <c r="D23" s="3">
-        <v>468817</v>
-      </c>
-      <c r="E23" s="2">
-        <v>115.1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>31</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.923</v>
-      </c>
-      <c r="J23" s="2">
-        <v>3.7639999999999998</v>
       </c>
     </row>
   </sheetData>
